--- a/mallar/import/Sm2019/extraktion-v3-sm2019.xlsx
+++ b/mallar/import/Sm2019/extraktion-v3-sm2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\import\Sm2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1654C059-982D-4314-8EEC-7DCB7539B980}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4EF111-481F-41E2-B231-22EBF9B6522F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{EF1B5C3D-AC33-4B29-A729-47C982E6613A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="5" xr2:uid="{EF1B5C3D-AC33-4B29-A729-47C982E6613A}"/>
   </bookViews>
   <sheets>
     <sheet name="ekipage" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="klubbar" sheetId="5" r:id="rId5"/>
     <sheet name="voltigörer" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ekipage!$G$1:$G$66</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="245">
   <si>
     <t>Christina Müller</t>
   </si>
@@ -587,6 +590,189 @@
   </si>
   <si>
     <t>Team Luna</t>
+  </si>
+  <si>
+    <t>Escamilo SW 2</t>
+  </si>
+  <si>
+    <t>Vit 2</t>
+  </si>
+  <si>
+    <t>Vit 17</t>
+  </si>
+  <si>
+    <t>Vit 12</t>
+  </si>
+  <si>
+    <t>Vit 10</t>
+  </si>
+  <si>
+    <t>Vit 13</t>
+  </si>
+  <si>
+    <t>Vit 11</t>
+  </si>
+  <si>
+    <t>Vit 7</t>
+  </si>
+  <si>
+    <t>Vit 5</t>
+  </si>
+  <si>
+    <t>Vit 21</t>
+  </si>
+  <si>
+    <t>Vit 3</t>
+  </si>
+  <si>
+    <t>Vit 23</t>
+  </si>
+  <si>
+    <t>Vit 15</t>
+  </si>
+  <si>
+    <t>Vit 14</t>
+  </si>
+  <si>
+    <t>Vit 18</t>
+  </si>
+  <si>
+    <t>Vit 19</t>
+  </si>
+  <si>
+    <t>Vit 20</t>
+  </si>
+  <si>
+    <t>Vit 22</t>
+  </si>
+  <si>
+    <t>Vit 1</t>
+  </si>
+  <si>
+    <t>Svart 1</t>
+  </si>
+  <si>
+    <t>Svart 2</t>
+  </si>
+  <si>
+    <t>Svart 3</t>
+  </si>
+  <si>
+    <t>Svart 4</t>
+  </si>
+  <si>
+    <t>Svart 5</t>
+  </si>
+  <si>
+    <t>Svart 6</t>
+  </si>
+  <si>
+    <t>Svart 7</t>
+  </si>
+  <si>
+    <t>Svart 8</t>
+  </si>
+  <si>
+    <t>Svart 9</t>
+  </si>
+  <si>
+    <t>Svart 10</t>
+  </si>
+  <si>
+    <t>Svart 11</t>
+  </si>
+  <si>
+    <t>Svart 12</t>
+  </si>
+  <si>
+    <t>Svart 13</t>
+  </si>
+  <si>
+    <t>Svart 14</t>
+  </si>
+  <si>
+    <t>Svart 15</t>
+  </si>
+  <si>
+    <t>Svart 16</t>
+  </si>
+  <si>
+    <t>Svart 17</t>
+  </si>
+  <si>
+    <t>Svart 18</t>
+  </si>
+  <si>
+    <t>Svart 19</t>
+  </si>
+  <si>
+    <t>Svart 20</t>
+  </si>
+  <si>
+    <t>Svart 21</t>
+  </si>
+  <si>
+    <t>Svart 22</t>
+  </si>
+  <si>
+    <t>Svart 23</t>
+  </si>
+  <si>
+    <t>Svart 24</t>
+  </si>
+  <si>
+    <t>Svart 25</t>
+  </si>
+  <si>
+    <t>Svart 26</t>
+  </si>
+  <si>
+    <t>Svart 27</t>
+  </si>
+  <si>
+    <t>Blå 1</t>
+  </si>
+  <si>
+    <t>Blå 2</t>
+  </si>
+  <si>
+    <t>Blå 3</t>
+  </si>
+  <si>
+    <t>Blå 4</t>
+  </si>
+  <si>
+    <t>Blå 5</t>
+  </si>
+  <si>
+    <t>Blå 6</t>
+  </si>
+  <si>
+    <t>Grön 1</t>
+  </si>
+  <si>
+    <t>Grön 2</t>
+  </si>
+  <si>
+    <t>Grön 3</t>
+  </si>
+  <si>
+    <t>Grön 4</t>
+  </si>
+  <si>
+    <t>Grön 5</t>
+  </si>
+  <si>
+    <t>Grön 6</t>
+  </si>
+  <si>
+    <t>Grön 7</t>
+  </si>
+  <si>
+    <t>Svart 49</t>
+  </si>
+  <si>
+    <t>Vit 16</t>
   </si>
 </sst>
 </file>
@@ -955,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E699B4-799D-435C-8FEE-CA3AE7CBAE4C}">
   <dimension ref="A1:W65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1429,11 +1615,14 @@
       <c r="I8" t="s">
         <v>99</v>
       </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
       <c r="K8">
-        <v>38510</v>
+        <v>40734</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.45">
@@ -1464,14 +1653,11 @@
       <c r="I9" t="s">
         <v>99</v>
       </c>
-      <c r="J9" t="s">
-        <v>101</v>
-      </c>
       <c r="K9">
-        <v>40734</v>
+        <v>38510</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.45">
@@ -1511,37 +1697,37 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>425385</v>
+        <v>425386</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="3">
-        <v>95073</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="3">
-        <v>55525</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>40</v>
+        <v>105</v>
+      </c>
+      <c r="D11">
+        <v>38836</v>
+      </c>
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11">
+        <v>119491</v>
+      </c>
+      <c r="G11" t="s">
+        <v>107</v>
       </c>
       <c r="H11">
-        <v>278</v>
+        <v>579</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="K11">
-        <v>5963</v>
+        <v>78364</v>
       </c>
       <c r="L11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.45">
@@ -1555,28 +1741,28 @@
         <v>105</v>
       </c>
       <c r="D12">
-        <v>38836</v>
+        <v>40299</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F12">
-        <v>119491</v>
+        <v>37499</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H12">
-        <v>579</v>
+        <v>875</v>
       </c>
       <c r="I12" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>78364</v>
+        <v>50023</v>
       </c>
       <c r="L12" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.45">
@@ -1628,28 +1814,31 @@
         <v>105</v>
       </c>
       <c r="D14">
-        <v>40299</v>
+        <v>39883</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="F14">
-        <v>37499</v>
+        <v>139483</v>
       </c>
       <c r="G14" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="H14">
-        <v>875</v>
+        <v>1198</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
+        <v>113</v>
       </c>
       <c r="K14">
-        <v>50023</v>
+        <v>40651</v>
       </c>
       <c r="L14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.45">
@@ -1663,31 +1852,28 @@
         <v>105</v>
       </c>
       <c r="D15">
-        <v>39883</v>
+        <v>95073</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F15">
-        <v>139483</v>
+        <v>55525</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H15">
-        <v>1198</v>
+        <v>278</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>40651</v>
+        <v>6229</v>
       </c>
       <c r="L15" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.45">
@@ -1701,63 +1887,66 @@
         <v>105</v>
       </c>
       <c r="D16">
-        <v>95073</v>
+        <v>141889</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F16">
-        <v>55525</v>
+        <v>5831</v>
       </c>
       <c r="G16" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H16">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>6229</v>
+        <v>40310</v>
       </c>
       <c r="L16" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>425386</v>
+        <v>425394</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="D17">
-        <v>141889</v>
+        <v>56148</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F17">
-        <v>5831</v>
+        <v>133922</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H17">
-        <v>223</v>
+        <v>114</v>
       </c>
       <c r="I17" t="s">
-        <v>2</v>
+        <v>45</v>
+      </c>
+      <c r="J17" t="s">
+        <v>174</v>
       </c>
       <c r="K17">
-        <v>40310</v>
+        <v>120007</v>
       </c>
       <c r="L17" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
@@ -1821,16 +2010,16 @@
         <v>94</v>
       </c>
       <c r="H19">
-        <v>589</v>
+        <v>223</v>
       </c>
       <c r="I19" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="K19">
-        <v>106897</v>
+        <v>41401</v>
       </c>
       <c r="L19" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
@@ -1844,28 +2033,28 @@
         <v>116</v>
       </c>
       <c r="D20">
-        <v>38836</v>
+        <v>69289</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F20">
-        <v>119491</v>
+        <v>45102</v>
       </c>
       <c r="G20" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H20">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="I20" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="K20">
-        <v>78468</v>
+        <v>106897</v>
       </c>
       <c r="L20" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
@@ -1879,28 +2068,28 @@
         <v>116</v>
       </c>
       <c r="D21">
-        <v>69289</v>
+        <v>38836</v>
       </c>
       <c r="E21" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F21">
-        <v>45102</v>
+        <v>119491</v>
       </c>
       <c r="G21" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="H21">
-        <v>223</v>
+        <v>579</v>
       </c>
       <c r="I21" t="s">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="K21">
-        <v>41401</v>
+        <v>78468</v>
       </c>
       <c r="L21" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
@@ -1989,11 +2178,11 @@
       <c r="E24" t="s">
         <v>49</v>
       </c>
-      <c r="F24">
-        <v>70743</v>
-      </c>
-      <c r="G24" t="s">
-        <v>50</v>
+      <c r="F24" s="1">
+        <v>2135</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="H24">
         <v>875</v>
@@ -2002,13 +2191,13 @@
         <v>51</v>
       </c>
       <c r="J24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K24">
-        <v>99453</v>
+        <v>79304</v>
       </c>
       <c r="L24" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
@@ -2022,104 +2211,98 @@
         <v>116</v>
       </c>
       <c r="D25">
-        <v>49704</v>
+        <v>95073</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2135</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>181</v>
+        <v>39</v>
+      </c>
+      <c r="F25">
+        <v>55525</v>
+      </c>
+      <c r="G25" t="s">
+        <v>40</v>
       </c>
       <c r="H25">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
-      </c>
-      <c r="J25" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="K25">
-        <v>79304</v>
+        <v>96828</v>
       </c>
       <c r="L25" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>425387</v>
+        <v>425388</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="1">
-        <v>18663</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="1">
-        <v>120239</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>131</v>
+        <v>152</v>
+      </c>
+      <c r="D26">
+        <v>40299</v>
+      </c>
+      <c r="E26" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26">
+        <v>999937499</v>
+      </c>
+      <c r="G26" t="s">
+        <v>111</v>
       </c>
       <c r="H26">
-        <v>875</v>
+        <v>973</v>
       </c>
       <c r="I26" t="s">
-        <v>51</v>
-      </c>
-      <c r="J26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K26">
-        <v>64250</v>
+        <v>134303</v>
       </c>
       <c r="L26" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>425387</v>
+        <v>425388</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="D27">
-        <v>95073</v>
+        <v>40299</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="F27">
-        <v>55525</v>
+        <v>999937499</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="H27">
-        <v>893</v>
+        <v>973</v>
       </c>
       <c r="I27" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="K27">
-        <v>96828</v>
+        <v>124566</v>
       </c>
       <c r="L27" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
@@ -2139,7 +2322,7 @@
         <v>110</v>
       </c>
       <c r="F28">
-        <v>37499</v>
+        <v>999937499</v>
       </c>
       <c r="G28" t="s">
         <v>111</v>
@@ -2218,19 +2401,19 @@
         <v>55</v>
       </c>
       <c r="H30">
-        <v>875</v>
+        <v>609</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J30" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="K30">
-        <v>51513</v>
+        <v>106236</v>
       </c>
       <c r="L30" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
@@ -2244,28 +2427,31 @@
         <v>116</v>
       </c>
       <c r="D31">
-        <v>129468</v>
+        <v>39162</v>
       </c>
       <c r="E31" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="F31">
-        <v>36020</v>
+        <v>138643</v>
       </c>
       <c r="G31" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="H31">
-        <v>589</v>
+        <v>875</v>
       </c>
       <c r="I31" t="s">
-        <v>117</v>
+        <v>51</v>
+      </c>
+      <c r="J31" t="s">
+        <v>132</v>
       </c>
       <c r="K31">
-        <v>69271</v>
+        <v>51513</v>
       </c>
       <c r="L31" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
@@ -2279,31 +2465,28 @@
         <v>116</v>
       </c>
       <c r="D32">
-        <v>118230</v>
+        <v>129468</v>
       </c>
       <c r="E32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F32">
-        <v>91289</v>
+        <v>36020</v>
       </c>
       <c r="G32" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H32">
-        <v>893</v>
+        <v>589</v>
       </c>
       <c r="I32" t="s">
-        <v>65</v>
-      </c>
-      <c r="J32" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="K32">
-        <v>82883</v>
+        <v>69271</v>
       </c>
       <c r="L32" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
@@ -2334,11 +2517,14 @@
       <c r="I33" t="s">
         <v>65</v>
       </c>
+      <c r="J33" t="s">
+        <v>139</v>
+      </c>
       <c r="K33">
-        <v>117799</v>
+        <v>82883</v>
       </c>
       <c r="L33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.45">
@@ -2352,42 +2538,39 @@
         <v>116</v>
       </c>
       <c r="D34">
-        <v>36847</v>
+        <v>118230</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="F34">
-        <v>81736</v>
+        <v>91289</v>
       </c>
       <c r="G34" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="H34">
-        <v>223</v>
+        <v>893</v>
       </c>
       <c r="I34" t="s">
-        <v>2</v>
-      </c>
-      <c r="J34" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K34">
-        <v>74165</v>
+        <v>117799</v>
       </c>
       <c r="L34" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>425387</v>
+        <v>425388</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="D35">
         <v>36847</v>
@@ -2408,10 +2591,10 @@
         <v>2</v>
       </c>
       <c r="K35">
-        <v>69872</v>
+        <v>129881</v>
       </c>
       <c r="L35" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
@@ -2425,16 +2608,16 @@
         <v>116</v>
       </c>
       <c r="D36">
-        <v>40068</v>
+        <v>36847</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F36">
-        <v>72506</v>
+        <v>81736</v>
       </c>
       <c r="G36" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="H36">
         <v>223</v>
@@ -2443,13 +2626,13 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="K36">
-        <v>54208</v>
+        <v>74165</v>
       </c>
       <c r="L36" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
@@ -2463,16 +2646,16 @@
         <v>116</v>
       </c>
       <c r="D37">
-        <v>40068</v>
+        <v>36847</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F37">
-        <v>72506</v>
+        <v>81736</v>
       </c>
       <c r="G37" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="H37">
         <v>223</v>
@@ -2481,10 +2664,10 @@
         <v>2</v>
       </c>
       <c r="K37">
-        <v>55422</v>
+        <v>69872</v>
       </c>
       <c r="L37" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
@@ -2498,16 +2681,16 @@
         <v>116</v>
       </c>
       <c r="D38">
-        <v>65038</v>
+        <v>40068</v>
       </c>
       <c r="E38" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F38">
-        <v>82226</v>
+        <v>72506</v>
       </c>
       <c r="G38" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="H38">
         <v>223</v>
@@ -2515,11 +2698,14 @@
       <c r="I38" t="s">
         <v>2</v>
       </c>
+      <c r="J38" t="s">
+        <v>143</v>
+      </c>
       <c r="K38">
-        <v>113034</v>
+        <v>54208</v>
       </c>
       <c r="L38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
@@ -2532,29 +2718,29 @@
       <c r="C39" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="3">
-        <v>18663</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="3">
-        <v>120239</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>131</v>
+      <c r="D39">
+        <v>65038</v>
+      </c>
+      <c r="E39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>82226</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>609</v>
+        <v>223</v>
       </c>
       <c r="I39" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="K39">
-        <v>61569</v>
+        <v>113034</v>
       </c>
       <c r="L39" t="s">
-        <v>144</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
@@ -2568,31 +2754,28 @@
         <v>116</v>
       </c>
       <c r="D40">
-        <v>39162</v>
+        <v>53719</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="F40">
-        <v>138643</v>
+        <v>72435</v>
       </c>
       <c r="G40" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="H40">
-        <v>609</v>
+        <v>579</v>
       </c>
       <c r="I40" t="s">
-        <v>56</v>
-      </c>
-      <c r="J40" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="K40">
-        <v>106236</v>
+        <v>100772</v>
       </c>
       <c r="L40" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
@@ -2606,28 +2789,31 @@
         <v>116</v>
       </c>
       <c r="D41">
-        <v>53719</v>
+        <v>40299</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F41">
-        <v>72435</v>
+        <v>999937499</v>
       </c>
       <c r="G41" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="H41">
-        <v>579</v>
+        <v>114</v>
       </c>
       <c r="I41" t="s">
-        <v>99</v>
+        <v>45</v>
+      </c>
+      <c r="J41" t="s">
+        <v>147</v>
       </c>
       <c r="K41">
-        <v>100772</v>
+        <v>124198</v>
       </c>
       <c r="L41" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
@@ -2641,31 +2827,28 @@
         <v>116</v>
       </c>
       <c r="D42">
-        <v>40299</v>
+        <v>129468</v>
       </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="F42">
-        <v>37499</v>
+        <v>36020</v>
       </c>
       <c r="G42" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="H42">
-        <v>114</v>
+        <v>589</v>
       </c>
       <c r="I42" t="s">
-        <v>45</v>
-      </c>
-      <c r="J42" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="K42">
-        <v>124198</v>
+        <v>103221</v>
       </c>
       <c r="L42" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
@@ -2697,10 +2880,10 @@
         <v>117</v>
       </c>
       <c r="K43">
-        <v>103221</v>
+        <v>70291</v>
       </c>
       <c r="L43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
@@ -2713,140 +2896,140 @@
       <c r="C44" t="s">
         <v>116</v>
       </c>
-      <c r="D44">
-        <v>129468</v>
-      </c>
-      <c r="E44" t="s">
-        <v>134</v>
-      </c>
-      <c r="F44">
-        <v>36020</v>
-      </c>
-      <c r="G44" t="s">
-        <v>135</v>
+      <c r="D44" s="1">
+        <v>49704</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="1">
+        <v>70743</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="H44">
-        <v>589</v>
+        <v>875</v>
       </c>
       <c r="I44" t="s">
-        <v>117</v>
+        <v>51</v>
+      </c>
+      <c r="J44" t="s">
+        <v>150</v>
       </c>
       <c r="K44">
-        <v>70291</v>
+        <v>99523</v>
       </c>
       <c r="L44" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <v>425387</v>
-      </c>
-      <c r="B45">
-        <v>5</v>
-      </c>
-      <c r="C45" t="s">
-        <v>116</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="2">
+        <v>425388</v>
+      </c>
+      <c r="B45" s="2">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="D45" s="1">
+        <v>95073</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="1">
+        <v>55525</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" s="2">
+        <v>869</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K45" s="2">
+        <v>120827</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>425385</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="3">
+        <v>95073</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" s="3">
+        <v>55525</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46">
+        <v>278</v>
+      </c>
+      <c r="I46" t="s">
+        <v>41</v>
+      </c>
+      <c r="K46">
+        <v>5963</v>
+      </c>
+      <c r="L46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>425388</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="1">
         <v>49704</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F47" s="1">
         <v>70743</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H45">
+      <c r="H47">
         <v>875</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I47" t="s">
         <v>51</v>
       </c>
-      <c r="J45" t="s">
-        <v>150</v>
-      </c>
-      <c r="K45">
-        <v>99523</v>
-      </c>
-      <c r="L45" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="2">
-        <v>425388</v>
-      </c>
-      <c r="B46" s="2">
-        <v>6</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D46" s="1">
-        <v>95073</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F46" s="1">
-        <v>55525</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H46" s="2">
-        <v>869</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K46" s="2">
-        <v>120827</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="2">
-        <v>425388</v>
-      </c>
-      <c r="B47" s="2">
-        <v>6</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D47" s="1">
-        <v>64240</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F47" s="1">
-        <v>84325</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H47" s="2">
-        <v>875</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="K47" s="2">
-        <v>107737</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>67</v>
+      <c r="J47" t="s">
+        <v>154</v>
+      </c>
+      <c r="K47">
+        <v>82678</v>
+      </c>
+      <c r="L47" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.45">
@@ -2859,17 +3042,17 @@
       <c r="C48" t="s">
         <v>152</v>
       </c>
-      <c r="D48" s="1">
-        <v>49704</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="1">
-        <v>70743</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>50</v>
+      <c r="D48">
+        <v>64240</v>
+      </c>
+      <c r="E48" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48">
+        <v>84325</v>
+      </c>
+      <c r="G48" t="s">
+        <v>70</v>
       </c>
       <c r="H48">
         <v>875</v>
@@ -2878,13 +3061,13 @@
         <v>51</v>
       </c>
       <c r="J48" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K48">
-        <v>82678</v>
+        <v>105337</v>
       </c>
       <c r="L48" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.45">
@@ -2916,62 +3099,62 @@
         <v>51</v>
       </c>
       <c r="J49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K49">
-        <v>105337</v>
+        <v>108189</v>
       </c>
       <c r="L49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A50">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="2">
         <v>425388</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>6</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>64240</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <v>84325</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="2">
         <v>875</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J50" t="s">
-        <v>157</v>
-      </c>
-      <c r="K50">
-        <v>108189</v>
-      </c>
-      <c r="L50" t="s">
-        <v>158</v>
+      <c r="J50" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K50" s="2">
+        <v>107737</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>425388</v>
+        <v>425387</v>
       </c>
       <c r="B51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="D51">
         <v>49704</v>
@@ -2992,13 +3175,13 @@
         <v>51</v>
       </c>
       <c r="J51" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="K51">
-        <v>107672</v>
+        <v>99453</v>
       </c>
       <c r="L51" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.45">
@@ -3012,28 +3195,31 @@
         <v>152</v>
       </c>
       <c r="D52">
-        <v>40299</v>
+        <v>49704</v>
       </c>
       <c r="E52" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="F52">
-        <v>37499</v>
+        <v>70743</v>
       </c>
       <c r="G52" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="H52">
-        <v>973</v>
+        <v>875</v>
       </c>
       <c r="I52" t="s">
-        <v>128</v>
+        <v>51</v>
+      </c>
+      <c r="J52" t="s">
+        <v>159</v>
       </c>
       <c r="K52">
-        <v>134303</v>
+        <v>107672</v>
       </c>
       <c r="L52" t="s">
-        <v>160</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.45">
@@ -3047,98 +3233,101 @@
         <v>152</v>
       </c>
       <c r="D53">
-        <v>40299</v>
+        <v>18663</v>
       </c>
       <c r="E53" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="F53">
-        <v>37499</v>
+        <v>120239</v>
       </c>
       <c r="G53" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="H53">
-        <v>973</v>
+        <v>594</v>
       </c>
       <c r="I53" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="K53">
-        <v>124566</v>
+        <v>139514</v>
       </c>
       <c r="L53" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>425388</v>
+        <v>425387</v>
       </c>
       <c r="B54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>152</v>
-      </c>
-      <c r="D54">
+        <v>116</v>
+      </c>
+      <c r="D54" s="3">
         <v>18663</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="3">
         <v>120239</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="3" t="s">
         <v>131</v>
       </c>
       <c r="H54">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="I54" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="K54">
-        <v>139514</v>
+        <v>61569</v>
       </c>
       <c r="L54" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>425388</v>
+        <v>425387</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
-      </c>
-      <c r="D55">
-        <v>129468</v>
-      </c>
-      <c r="E55" t="s">
-        <v>134</v>
-      </c>
-      <c r="F55">
-        <v>36020</v>
-      </c>
-      <c r="G55" t="s">
-        <v>135</v>
+        <v>116</v>
+      </c>
+      <c r="D55" s="1">
+        <v>18663</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" s="1">
+        <v>120239</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="H55">
-        <v>589</v>
+        <v>875</v>
       </c>
       <c r="I55" t="s">
-        <v>117</v>
+        <v>51</v>
+      </c>
+      <c r="J55" t="s">
+        <v>126</v>
       </c>
       <c r="K55">
-        <v>106123</v>
+        <v>64250</v>
       </c>
       <c r="L55" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.45">
@@ -3152,28 +3341,28 @@
         <v>152</v>
       </c>
       <c r="D56">
-        <v>36847</v>
+        <v>129468</v>
       </c>
       <c r="E56" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="F56">
-        <v>81736</v>
+        <v>36020</v>
       </c>
       <c r="G56" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="H56">
-        <v>223</v>
+        <v>589</v>
       </c>
       <c r="I56" t="s">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="K56">
-        <v>129881</v>
+        <v>106123</v>
       </c>
       <c r="L56" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.45">
@@ -3222,16 +3411,16 @@
         <v>152</v>
       </c>
       <c r="D58">
-        <v>36847</v>
+        <v>40068</v>
       </c>
       <c r="E58" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F58">
-        <v>48856</v>
+        <v>72506</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="H58">
         <v>223</v>
@@ -3239,25 +3428,22 @@
       <c r="I58" t="s">
         <v>2</v>
       </c>
-      <c r="J58" t="s">
-        <v>163</v>
-      </c>
       <c r="K58">
-        <v>113062</v>
+        <v>69830</v>
       </c>
       <c r="L58" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>425388</v>
+        <v>425387</v>
       </c>
       <c r="B59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="D59">
         <v>40068</v>
@@ -3278,10 +3464,10 @@
         <v>2</v>
       </c>
       <c r="K59">
-        <v>69830</v>
+        <v>55422</v>
       </c>
       <c r="L59" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.45">
@@ -3371,31 +3557,31 @@
         <v>152</v>
       </c>
       <c r="D62">
-        <v>41166</v>
+        <v>36847</v>
       </c>
       <c r="E62" t="s">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="F62">
-        <v>110697</v>
+        <v>48856</v>
       </c>
       <c r="G62" t="s">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="H62">
-        <v>589</v>
+        <v>223</v>
       </c>
       <c r="I62" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="K62">
-        <v>87140</v>
+        <v>113062</v>
       </c>
       <c r="L62" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.45">
@@ -3426,57 +3612,60 @@
       <c r="I63" t="s">
         <v>117</v>
       </c>
+      <c r="J63" t="s">
+        <v>169</v>
+      </c>
       <c r="K63">
-        <v>118803</v>
+        <v>87140</v>
       </c>
       <c r="L63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>425393</v>
+        <v>425388</v>
       </c>
       <c r="B64">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="D64">
-        <v>56148</v>
+        <v>41166</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="F64">
-        <v>133922</v>
+        <v>110697</v>
       </c>
       <c r="G64" t="s">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="H64">
-        <v>114</v>
+        <v>589</v>
       </c>
       <c r="I64" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="K64">
-        <v>119761</v>
+        <v>118803</v>
       </c>
       <c r="L64" t="s">
-        <v>59</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>425394</v>
+        <v>425393</v>
       </c>
       <c r="B65">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D65">
         <v>56148</v>
@@ -3496,14 +3685,11 @@
       <c r="I65" t="s">
         <v>45</v>
       </c>
-      <c r="J65" t="s">
-        <v>174</v>
-      </c>
       <c r="K65">
-        <v>120007</v>
+        <v>119761</v>
       </c>
       <c r="L65" t="s">
-        <v>175</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3516,7 +3702,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3876,10 +4062,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0671ADAA-8367-49B4-9BD7-62801D92F484}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:B27"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3994,113 +4180,121 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>55525</v>
+        <v>999937499</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>133922</v>
+        <v>55525</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>10362</v>
+        <v>133922</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>120239</v>
+        <v>10362</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>138643</v>
+        <v>120239</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>36020</v>
+        <v>138643</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>91289</v>
+        <v>36020</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>81736</v>
+        <v>91289</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>72506</v>
+        <v>81736</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>84325</v>
+        <v>72506</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>48856</v>
+        <v>84325</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>93110</v>
+        <v>48856</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>110697</v>
+        <v>93110</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
+        <v>110697</v>
+      </c>
+      <c r="B27" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
         <v>2135</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4273,10 +4467,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6038BD-E98A-4EC9-82EE-E489CA9E309A}">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4285,39 +4479,51 @@
     <col min="2" max="2" width="22.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>69872</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>40310</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>101407</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>113062</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>124472</v>
       </c>
@@ -4325,15 +4531,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>129881</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>54511</v>
       </c>
@@ -4341,7 +4550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>47264</v>
       </c>
@@ -4349,7 +4558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>41815</v>
       </c>
@@ -4357,7 +4566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>47288</v>
       </c>
@@ -4365,15 +4574,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>38739</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>109403</v>
       </c>
@@ -4381,7 +4593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>107749</v>
       </c>
@@ -4389,7 +4601,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>129485</v>
       </c>
@@ -4397,7 +4609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>108087</v>
       </c>
@@ -4405,7 +4617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>134138</v>
       </c>
@@ -4413,7 +4625,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>118668</v>
       </c>
@@ -4421,7 +4633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>107961</v>
       </c>
@@ -4429,15 +4641,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>61462</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>95784</v>
       </c>
@@ -4445,7 +4660,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>107102</v>
       </c>
@@ -4453,7 +4668,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>131402</v>
       </c>
@@ -4461,7 +4676,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>108862</v>
       </c>
@@ -4469,55 +4684,73 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>139514</v>
       </c>
       <c r="B24" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>55422</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>41401</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>54208</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>69830</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>74165</v>
       </c>
       <c r="B29" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>101580</v>
       </c>
@@ -4525,380 +4758,521 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>35251</v>
       </c>
       <c r="B31" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>60164</v>
       </c>
       <c r="B32" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>38510</v>
       </c>
       <c r="B33" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>40734</v>
       </c>
       <c r="B34" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>5963</v>
       </c>
       <c r="B35" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>78364</v>
       </c>
       <c r="B36" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>51915</v>
       </c>
       <c r="B37" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>50023</v>
       </c>
       <c r="B38" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>40651</v>
       </c>
       <c r="B39" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C39" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>6229</v>
       </c>
       <c r="B40" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C40" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40406</v>
       </c>
       <c r="B41" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C41" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>106897</v>
       </c>
       <c r="B42" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>78468</v>
       </c>
       <c r="B43" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C43" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>128692</v>
       </c>
       <c r="B44" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C44" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>105241</v>
       </c>
       <c r="B45" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C45" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>99453</v>
       </c>
       <c r="B46" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C46" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>79304</v>
       </c>
       <c r="B47" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C47" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>64250</v>
       </c>
       <c r="B48" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C48" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>96828</v>
       </c>
       <c r="B49" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C49" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>120351</v>
       </c>
       <c r="B50" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C50" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>51513</v>
       </c>
       <c r="B51" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>69271</v>
       </c>
       <c r="B52" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C52" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>82883</v>
       </c>
       <c r="B53" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C53" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>117799</v>
       </c>
       <c r="B54" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C54" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>113034</v>
       </c>
       <c r="B55" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C55" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>61569</v>
       </c>
       <c r="B56" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C56" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>106236</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C57" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>100772</v>
       </c>
       <c r="B58" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C58" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>124198</v>
       </c>
       <c r="B59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C59" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>103221</v>
       </c>
       <c r="B60" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C60" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>70291</v>
       </c>
       <c r="B61" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C61" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>99523</v>
       </c>
       <c r="B62" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C62" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>120827</v>
       </c>
       <c r="B63" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C63" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>107737</v>
       </c>
       <c r="B64" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C64" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>82678</v>
       </c>
       <c r="B65" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C65" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>105337</v>
       </c>
       <c r="B66" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C66" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>108189</v>
       </c>
       <c r="B67" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C67" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>107672</v>
       </c>
       <c r="B68" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C68" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>134303</v>
       </c>
       <c r="B69" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C69" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>124566</v>
       </c>
       <c r="B70" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C70" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>106123</v>
       </c>
       <c r="B71" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C71" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>129660</v>
       </c>
       <c r="B72" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C72" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>119893</v>
       </c>
       <c r="B73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C73" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>87140</v>
       </c>
       <c r="B74" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C74" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>118803</v>
       </c>
       <c r="B75" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C75" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>119761</v>
       </c>
       <c r="B76" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C76" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>120007</v>
       </c>
       <c r="B77" t="s">
         <v>175</v>
+      </c>
+      <c r="C77" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/mallar/import/Sm2019/extraktion-v3-sm2019.xlsx
+++ b/mallar/import/Sm2019/extraktion-v3-sm2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\import\Sm2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4EF111-481F-41E2-B231-22EBF9B6522F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FCF13E-35B5-4105-A58C-65F1D293B741}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="5" xr2:uid="{EF1B5C3D-AC33-4B29-A729-47C982E6613A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{EF1B5C3D-AC33-4B29-A729-47C982E6613A}"/>
   </bookViews>
   <sheets>
     <sheet name="ekipage" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="246">
   <si>
     <t>Christina Müller</t>
   </si>
@@ -773,6 +773,9 @@
   </si>
   <si>
     <t>Vit 16</t>
+  </si>
+  <si>
+    <t>Frillesås juniorlag</t>
   </si>
 </sst>
 </file>
@@ -1141,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E699B4-799D-435C-8FEE-CA3AE7CBAE4C}">
   <dimension ref="A1:W65"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1442,6 +1445,9 @@
       <c r="V4" t="s">
         <v>90</v>
       </c>
+      <c r="W4" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5">
@@ -4469,7 +4475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6038BD-E98A-4EC9-82EE-E489CA9E309A}">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
